--- a/old_database/crypto/fastqFiles/fastq_2477.xlsx
+++ b/old_database/crypto/fastqFiles/fastq_2477.xlsx
@@ -37,7 +37,7 @@
     <t>09.07.17</t>
   </si>
   <si>
-    <t>Retrofitted</t>
+    <t>Retrofitted_2477</t>
   </si>
   <si>
     <t>sequence/run_2477_samples/2477_Brent_1_TGAGGTT_S2_R1_001.fastq</t>
